--- a/Labs/Lab07/Lab07.xlsx
+++ b/Labs/Lab07/Lab07.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student408\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snglrtycrvtureofspce\Documents\snglrtycrvtureofspce\GitHub\software-testing\Labs\Lab07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A277CD4-89CD-4385-830F-790F8E90D79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD6403-8DD5-46BD-82F6-C63063E75EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C2F6A39-8C50-48B0-9D7B-279257A0BBEF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t xml:space="preserve">1.Опишите жизненный цикл дефекта. </t>
   </si>
@@ -114,166 +114,19 @@
     <t>Нереализованная функциональность</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Открыть программное приложение 
-2. Нажать на кнопку "Зарегистрироваться"
-3. Заполнить поле "Логин", в котором более 15 символов
-4. Нажать кнопку "Зарегистрироваться"
-</t>
-  </si>
-  <si>
     <t>Отображается сообщение "Обязательные поля не заполнены!" и не выполняется авторизация.</t>
   </si>
   <si>
-    <t>Не отображается сообщение "Пароль длиннее 15 символов. Введите новый!" и выпоняется регистрация.</t>
-  </si>
-  <si>
-    <t>1. Открыть программное приложение 
-2. Нажать на кнопку "Зарегистрироваться" или "Авторизация"
-3. Заполнить поле "Логин" корректными данными
-4. Заполнить поле "Пароль" корректными данными
-5. Нажать на кнопку "Зарегистрироваться" или "Авторизоваться"
-6. Заполнить требуемые поля: 
-- "Идентификационный номер квартиры (обязательно)" - 0067ккк
-- "Дата сделки" - 13102012
-- "Цена (обязательно)" - 67890и3
-- "Покупатель" - Петров _ПЭ_ПЭ
-- "Площадь квартиры (обязательно)" - скока там _______ьа
-- "Количество комнат (обязательно)" - при 3
-7. Нажать на кнопку "Внести данные в базу данных"</t>
-  </si>
-  <si>
-    <t>Отображается сообщение "Вы неверно заполнили форму!" и не выполняется занесение данных в базу данных.</t>
-  </si>
-  <si>
-    <t>Не отображается сообщение "Вы неверно заполнили форму!" и выполняется занесение данных в базу данных.</t>
-  </si>
-  <si>
-    <t>1. Открыть программное приложение 
-2. Нажать на кнопку "Зарегистрироваться" или "Авторизация"
-3. Заполнить поле "Логин" корректными данными
-4. Заполнить поле "Пароль" корректными данными
-5. Нажать на кнопку "Зарегистрироваться" или "Авторизоваться"
-6. Нажать на кнопку "Открыть основную базу данных"
-7.  Заполнить требуемые поля:
-- "Идентификационный номер квартиры" - 0067 ( уже есть в основной (второй) базе данных)
-8. Нажать на кнопку "Записать в основную базу"</t>
-  </si>
-  <si>
     <t>Неожиданное поведение</t>
   </si>
   <si>
-    <t>Не отображается соощение "ID уже существует в основной базе данных!" и происходит ошибка.</t>
-  </si>
-  <si>
-    <t>1. Открыть программное приложение 
-2. Нажать на кнопку "Зарегистрироваться" или "Авторизация"
-3. Заполнить поле "Логин" корректными данными
-4. Заполнить поле "Пароль" корректными данными
-5. Нажать на кнопку "Зарегистрироваться" или "Авторизоваться"
-6. Нажать на кнопку "Открыть справочную базу данных"
-7.  Заполнить требуемые поля:
-- "Идентификационный номер квартиры" - 0067 ( уже есть в справочной (третьей) базе данных)
-8. Нажать на кнопку "Записать в справочную базу"</t>
-  </si>
-  <si>
-    <t>В оконной форме авторизации при незаполненных полях "Логин" и "Пароль" выполняется авторизация и происходит переход на главную оконную форму.
-Требование: UC1,TC1/5</t>
-  </si>
-  <si>
-    <t>В оконной форме регистрации при заполненном поле "Логин", в котором более 15 символов, выполняется регистрация и происходит переход на главную оконную форму.
-Требование: UC2,TC2/10</t>
-  </si>
-  <si>
-    <t>В оконной форме для занесения информации о квартирах в базу данных при неверно введенных данных в поля "Идентификационны номер квартиры(обязательно)", "Дата сделки", "Цена(обязательно)", "Покупатель", "Площадь квартиры(обязательно)", "Количество комнат(обязательно)"
-Требование: UC3,TC3/4</t>
-  </si>
-  <si>
-    <t>В оконной форме для чтения и занесения информации в основную (вторую) базу данных при неверно введенном поле "Идентификационный номер квартиры" и происходит ошибка.
-Требование: UC4,TC4/5</t>
-  </si>
-  <si>
-    <t>В оконной форме для чтения и занесения информации в справочную (третью) базу данных при неверно введенном поле "Идентификационный номер квартиры" и происходит ошибка.
-Требование: UC5,TC5/4</t>
-  </si>
-  <si>
-    <t>Выполняется регистрация при переполнении поля "Логин" в оконной форме регистрации.</t>
-  </si>
-  <si>
     <t>Выполняется авторизация при незапоненных полях "Логин" и "Пароль" в оконной форме авторизации.</t>
   </si>
   <si>
-    <t>Выполняется занесение информации о квартирах в базу данных при неверно введенных данных в поля в оконной форме для занесения информации о квартирах.</t>
-  </si>
-  <si>
-    <t>Происходит ошибка при неверно введенном поле в оконной форме для чтения и занесения информации в основную (вторую) базу данных .</t>
-  </si>
-  <si>
-    <t>Происходит ошибка при неверно введенном поле в оконной форме для чтения и занесения информации в справочную (третью) базу данных.</t>
-  </si>
-  <si>
-    <t>Отображается сообщение "Пароль длиннее 15 символов. Введите новый!" и не выполняется регистрация.</t>
-  </si>
-  <si>
-    <t>Отображается соощение "ID уже существует в основной базе данных!".</t>
-  </si>
-  <si>
-    <t>Отображается соощение "ID уже существует в справочной базе данных!".</t>
-  </si>
-  <si>
     <t>Не отображается сообщение "Обязательные поля не заполнены!" и выпоняется авторизация.</t>
   </si>
   <si>
-    <t>Отображается соощение "ID уже существует в основной базе данных!" и происходит ошибка.</t>
-  </si>
-  <si>
-    <t>При запуске видео с пометкой "Безопасный режим" в рекомендациях показываются видео, которые могут быть опасны для детей.</t>
-  </si>
-  <si>
-    <t>На сайте "YouTube" при запуске видео, которое помечено меткой "Безопасный режим" в "ленте" рекомендованных видео показываются видео, которые могет быть опасны для детей (Пример: Kuplinov Play - Outlast)</t>
-  </si>
-  <si>
-    <t>1. Открыть сайт "YouTube"
-2. Нажать на кнопку "Зарегистрироваться" или "Авторизация"
-3. Заполнить поле "Логин" корректными данными
-4. Заполнить поле "Пароль" корректными данными
-5. Нажать на кнопку "Зарегистрироваться" или "Авторизоваться"
-6. Открыть видео, которое помечено меткой "Безопасный режим"
-7. Начать просмотр
-8. Открыть "ленту" рекомендованных видео, которые находятся ниже самого видео</t>
-  </si>
-  <si>
-    <t>В рекомендованных видео не показаны видео, которые могут быть опасны для детей (ненормативная лексика, спам, агитация и т.д.)</t>
-  </si>
-  <si>
-    <t>В рекомендованных видео показаны видео, которые могут быть опасны для детей (ненормативная лексика, спам, агитация и т.д.)</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Показывается зелёный экран при просмотре видео в полноэкранном режиме</t>
-  </si>
-  <si>
     <t>Иногда</t>
-  </si>
-  <si>
-    <t>На сайте "YouTube" при запуске видео показывается зелёный экран при просмотре видео, которое включено в  полноэкранном режиме</t>
-  </si>
-  <si>
-    <t>1. Открыть сайт "YouTube"
-2. Нажать на кнопку "Зарегистрироваться" или "Авторизация"
-3. Заполнить поле "Логин" корректными данными
-4. Заполнить поле "Пароль" корректными данными
-5. Нажать на кнопку "Зарегистрироваться" или "Авторизоваться"
-6. Открыть любое видео
-7. Начать просмотр
-8. Включить полноэкранный режим</t>
-  </si>
-  <si>
-    <t>При просмотре видео в полноэкранном режиме не показывается зелёный экран</t>
-  </si>
-  <si>
-    <t>При просмотре видео в полноэкранном режиме показывается зелёный экран</t>
   </si>
   <si>
     <t>Fedora 37</t>
@@ -334,7 +187,102 @@
     <t>Низкая</t>
   </si>
   <si>
-    <t>Обычная</t>
+    <t>1. Открыть каталог 
+2. Добавить определенный товар в корзину 
+3. Проверить корзину</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавление товара в корзину </t>
+  </si>
+  <si>
+    <t>Отображается соощение "Товар уже имеется в корзине".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При добавлении одного и того же товара в корзину система не позволяет добавить его в корзину </t>
+  </si>
+  <si>
+    <t>В оконной форме авторизации при незаполненных полях "Логин" и "Пароль" выполняется авторизация и происходит переход на главную оконную форму.
+Требование: UC1</t>
+  </si>
+  <si>
+    <t>1. Открыть программное приложение 
+2. Нажать на кнопку "Авторизация"
+3. Заполнить поле "Логин" корректными данными
+4. Заполнить поле "Пароль" корректными данными
+5. Нажать на кнопку "Товары"
+6.  Заполнить требуемые поля.
+7. Нажать на кнопку "Записать в  базу данных"</t>
+  </si>
+  <si>
+    <t>В оконной форме для занесения информации о товаре в базу данных при неверно введенных данных в поля "(ID) Идентификационный номер товара(обязательно)", "Наименование", "Цена(обязательно)", "Категория", "Производитель", "Количество"
+Требование: UC2</t>
+  </si>
+  <si>
+    <t>Не отображается сообщение "Вы неверно заполнили форму!", и после этого выполняется занесение данных в первую базу данных.</t>
+  </si>
+  <si>
+    <t>Происходит ошибка в занесении данных о товаре в первую базу данных.</t>
+  </si>
+  <si>
+    <t>Происходит ошибка в занесении данных о товаре во вторую базу данных.</t>
+  </si>
+  <si>
+    <t>В оконной форме для занесения информации о товаре в базу данных при неверно введенных данных в поля "(ID) Идентификационный номер товара(обязательно)", "Наименование", "Цена(обязательно)", "Категория", "Производитель", "Количество"
+Требование: UC3</t>
+  </si>
+  <si>
+    <t>В главном окне программы в меню отсутвует пункт меню "Справка"
+Требование: UC4</t>
+  </si>
+  <si>
+    <t>1. Открыть программное приложение 
+2. Нажать на кнопку "Авторизация"
+3. Заполнить поле "Логин" корректными данными
+4. Заполнить поле "Пароль" корректными данными
+5. Нажать на кнопку "Справка"
+Требование: UC4</t>
+  </si>
+  <si>
+    <t>1. Открыть программное приложение 
+2. Нажать на кнопку "Авторизация"
+3. Заполнить поле "Логин" корректными данными
+4. Заполнить поле "Пароль" корректными данными
+5. Нажать на кнопку "Справка"</t>
+  </si>
+  <si>
+    <t>Выводитя оконная форма "Справка"</t>
+  </si>
+  <si>
+    <t>Оконная форма не выводится</t>
+  </si>
+  <si>
+    <t>После входа в аккаунт при открытии настроек и нажатии на кнопку "Выйти" система должна осуществить выход</t>
+  </si>
+  <si>
+    <t>После входа в аккаунт при открытии настроек и нажатии на кнопку "Выйти" система должна осуществить выход
+Требование: UC5</t>
+  </si>
+  <si>
+    <t>1. Открыть программное приложение 
+2. Нажать на кнопку "Авторизация"
+3. Заполнить поле "Логин" корректными данными
+4. Заполнить поле "Пароль" корректными данными
+5. Перейти в пункт настрйки и ажать на кнопку "Выйти"</t>
+  </si>
+  <si>
+    <t>Не отображается сообщение "Вы неверно заполнили форму!", и после этого выполняется занесение данных во вторую базу данных.</t>
+  </si>
+  <si>
+    <t>Отображается сообщение "Вы неверно заполнили форму!" и не выполняется занесение данных в первую базу данных.</t>
+  </si>
+  <si>
+    <t>Отображается сообщение "Вы неверно заполнили форму!" и не выполняется занесение данных во вторую базу данных.</t>
+  </si>
+  <si>
+    <t>Выход с аккаунта</t>
+  </si>
+  <si>
+    <t>Производится переброс на главную страницу</t>
   </si>
 </sst>
 </file>
@@ -493,7 +441,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -524,23 +472,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -982,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA10B7E-4210-47FB-81BE-7F2010916628}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,13 +961,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1021,11 +978,11 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1038,11 +995,11 @@
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="6"/>
@@ -1054,37 +1011,37 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1093,66 +1050,66 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>21</v>
@@ -1163,174 +1120,139 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="286.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>35</v>
+      <c r="B8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="C11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="K11" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1363,8 +1285,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="408.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>60</v>
+      <c r="A2" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
   </sheetData>

--- a/Labs/Lab07/Lab07.xlsx
+++ b/Labs/Lab07/Lab07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snglrtycrvtureofspce\Documents\snglrtycrvtureofspce\GitHub\software-testing\Labs\Lab07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD6403-8DD5-46BD-82F6-C63063E75EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EAD08F-D11E-4E9C-8AE0-CF5BB0D915CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C2F6A39-8C50-48B0-9D7B-279257A0BBEF}"/>
   </bookViews>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Всегда</t>
-  </si>
-  <si>
-    <t>Программное средство для ведения статистики риелторского агентства</t>
   </si>
   <si>
     <t xml:space="preserve">1. Открыть программное приложение 
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>Производится переброс на главную страницу</t>
+  </si>
+  <si>
+    <t>Приложение, автоматизирующее работу менеджера по продаже товаров в категории "Электроника"</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -433,6 +433,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -441,7 +452,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,12 +495,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -498,6 +503,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -939,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA10B7E-4210-47FB-81BE-7F2010916628}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,11 +978,11 @@
       <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -982,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -999,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="6"/>
@@ -1050,34 +1064,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="195" x14ac:dyDescent="0.25">
@@ -1085,34 +1099,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="286.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
@@ -1120,69 +1134,69 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="286.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -1190,74 +1204,74 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="E9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1286,7 +1300,7 @@
     </row>
     <row r="2" spans="1:1" ht="408.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
